--- a/excel file test.xlsx
+++ b/excel file test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +154,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,227 +438,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44969</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44972</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44977</v>
+      </c>
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>44978</v>
+      </c>
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44981</v>
+      </c>
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="e">
+      <c r="C6" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="e">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>44985</v>
+      </c>
+      <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>70</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>44987</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>80</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>44990</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45006</v>
+      </c>
+      <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>100</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
